--- a/assets/users.xlsx
+++ b/assets/users.xlsx
@@ -143,10 +143,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/assets/users.xlsx
+++ b/assets/users.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Username</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">Access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ihjas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMIN</t>
   </si>
 </sst>
 </file>
@@ -143,10 +149,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -160,9 +166,15 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
